--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2274278.584357216</v>
+        <v>2271735.467388619</v>
       </c>
     </row>
     <row r="7">
@@ -674,10 +674,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="S2" t="n">
         <v>154.6528871281402</v>
@@ -713,10 +713,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>185.2449961814027</v>
+        <v>185.2449961814016</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>102.0961319685089</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>195.264577756233</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>170.5433282360366</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>217.6858695213713</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.2905114143439</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>236.069633637742</v>
+        <v>290.2905114143467</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.74220307430066</v>
+        <v>12.74220307430065</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>290.2905114143467</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>150.6718910157313</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>85.39774262201315</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>290.2905114143439</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.2905114143439</v>
+        <v>290.2905114143467</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>95.41232349639061</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>64.07498175579173</v>
+        <v>146.235897424241</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>92.62175729194091</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.6496154441977</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>37.97489799962206</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>288.8263123722668</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295398</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>199.6452357812551</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>50.9807481254324</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>21.21812042899047</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.05856366754465</v>
       </c>
       <c r="G13" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.452825597604</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>217.0250037474727</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428077</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159608946</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158.8704849235816</v>
+        <v>401.1007355715661</v>
       </c>
       <c r="C2" t="n">
-        <v>158.8704849235816</v>
+        <v>401.1007355715661</v>
       </c>
       <c r="D2" t="n">
-        <v>158.8704849235816</v>
+        <v>401.1007355715661</v>
       </c>
       <c r="E2" t="n">
-        <v>158.8704849235816</v>
+        <v>401.1007355715661</v>
       </c>
       <c r="F2" t="n">
-        <v>151.9249841743781</v>
+        <v>394.1552348223626</v>
       </c>
       <c r="G2" t="n">
-        <v>138.8776064512096</v>
+        <v>381.1078570991941</v>
       </c>
       <c r="H2" t="n">
         <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470337</v>
+        <v>40.41888584470371</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192956</v>
+        <v>122.9820404192958</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605488</v>
+        <v>262.3106962605486</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859564</v>
+        <v>449.0101090859559</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779383</v>
+        <v>643.344321977938</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948978</v>
+        <v>813.5133472948972</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444249</v>
+        <v>924.2476725444236</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="S2" t="n">
-        <v>803.016755062848</v>
+        <v>803.0167550628465</v>
       </c>
       <c r="T2" t="n">
-        <v>588.2168933305591</v>
+        <v>588.2168933305576</v>
       </c>
       <c r="U2" t="n">
-        <v>345.9866426825743</v>
+        <v>588.2168933305576</v>
       </c>
       <c r="V2" t="n">
-        <v>158.8704849235816</v>
+        <v>401.1007355715661</v>
       </c>
       <c r="W2" t="n">
-        <v>158.8704849235816</v>
+        <v>401.1007355715661</v>
       </c>
       <c r="X2" t="n">
-        <v>158.8704849235816</v>
+        <v>401.1007355715661</v>
       </c>
       <c r="Y2" t="n">
-        <v>158.8704849235816</v>
+        <v>401.1007355715661</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>648.3440877722692</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="C3" t="n">
-        <v>473.8910584911422</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="D3" t="n">
-        <v>324.9566488298909</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="E3" t="n">
-        <v>165.7191938244354</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J3" t="n">
-        <v>19.1846358513204</v>
+        <v>85.301415481663</v>
       </c>
       <c r="K3" t="n">
-        <v>86.7924555146774</v>
+        <v>152.9092351450199</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0220535303713</v>
+        <v>290.1388331607136</v>
       </c>
       <c r="M3" t="n">
-        <v>403.519389884976</v>
+        <v>469.6361695153182</v>
       </c>
       <c r="N3" t="n">
-        <v>602.1761315376407</v>
+        <v>668.2929111679827</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367441</v>
+        <v>827.805223836743</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640429</v>
+        <v>936.4948513640417</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="S3" t="n">
-        <v>856.104386537223</v>
+        <v>809.7650034286532</v>
       </c>
       <c r="T3" t="n">
-        <v>856.104386537223</v>
+        <v>612.7757075887408</v>
       </c>
       <c r="U3" t="n">
-        <v>856.104386537223</v>
+        <v>384.6369200999066</v>
       </c>
       <c r="V3" t="n">
-        <v>856.104386537223</v>
+        <v>384.6369200999066</v>
       </c>
       <c r="W3" t="n">
-        <v>856.104386537223</v>
+        <v>187.3999728713884</v>
       </c>
       <c r="X3" t="n">
-        <v>856.104386537223</v>
+        <v>187.3999728713884</v>
       </c>
       <c r="Y3" t="n">
-        <v>648.3440877722692</v>
+        <v>187.3999728713884</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>786.9658044488111</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="C4" t="n">
-        <v>786.9658044488111</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="D4" t="n">
-        <v>636.8491650364754</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="E4" t="n">
-        <v>488.9360714540823</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="F4" t="n">
-        <v>342.0461239561719</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="G4" t="n">
         <v>173.4392789515553</v>
       </c>
       <c r="H4" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I4" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J4" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469302</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477485</v>
+        <v>245.1780356031023</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669864</v>
+        <v>450.4476363223401</v>
       </c>
       <c r="N4" t="n">
-        <v>716.1585259030907</v>
+        <v>656.2710011584443</v>
       </c>
       <c r="O4" t="n">
-        <v>890.2534212916895</v>
+        <v>830.3658965470431</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456599</v>
+        <v>955.8134731456587</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660199</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660199</v>
+        <v>828.7538312854211</v>
       </c>
       <c r="S4" t="n">
-        <v>786.9658044488111</v>
+        <v>621.3135465378265</v>
       </c>
       <c r="T4" t="n">
-        <v>786.9658044488111</v>
+        <v>621.3135465378265</v>
       </c>
       <c r="U4" t="n">
-        <v>786.9658044488111</v>
+        <v>621.3135465378265</v>
       </c>
       <c r="V4" t="n">
-        <v>786.9658044488111</v>
+        <v>401.4288298495727</v>
       </c>
       <c r="W4" t="n">
-        <v>786.9658044488111</v>
+        <v>401.4288298495727</v>
       </c>
       <c r="X4" t="n">
-        <v>786.9658044488111</v>
+        <v>173.4392789515553</v>
       </c>
       <c r="Y4" t="n">
-        <v>786.9658044488111</v>
+        <v>173.4392789515553</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>281.4938292502729</v>
+        <v>629.4851314633552</v>
       </c>
       <c r="C5" t="n">
-        <v>281.4938292502729</v>
+        <v>629.4851314633552</v>
       </c>
       <c r="D5" t="n">
-        <v>43.03965385861427</v>
+        <v>336.2623926609849</v>
       </c>
       <c r="E5" t="n">
-        <v>43.03965385861427</v>
+        <v>336.2623926609849</v>
       </c>
       <c r="F5" t="n">
-        <v>36.0941531094108</v>
+        <v>329.3168919117814</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314751</v>
+        <v>316.4459797155181</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314751</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314751</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951856</v>
+        <v>59.13673382951947</v>
       </c>
       <c r="K5" t="n">
-        <v>163.700268344493</v>
+        <v>163.7002683444953</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084598</v>
+        <v>330.3223409084635</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162805</v>
+        <v>547.390938716286</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417536969</v>
+        <v>772.5857417537039</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416822</v>
+        <v>971.8955472416906</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171402</v>
+        <v>1107.500854171412</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657376</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657376</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657376</v>
+        <v>1008.968216348567</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657376</v>
+        <v>1008.968216348567</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.162045657376</v>
+        <v>1008.968216348567</v>
       </c>
       <c r="V5" t="n">
-        <v>1161.162045657376</v>
+        <v>922.7078702657255</v>
       </c>
       <c r="W5" t="n">
-        <v>1161.162045657376</v>
+        <v>922.7078702657255</v>
       </c>
       <c r="X5" t="n">
-        <v>867.939306855008</v>
+        <v>922.7078702657255</v>
       </c>
       <c r="Y5" t="n">
-        <v>574.7165680526405</v>
+        <v>629.4851314633552</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.22324091314751</v>
+        <v>119.5993252529362</v>
       </c>
       <c r="C6" t="n">
-        <v>23.22324091314751</v>
+        <v>119.5993252529362</v>
       </c>
       <c r="D6" t="n">
-        <v>23.22324091314751</v>
+        <v>119.5993252529362</v>
       </c>
       <c r="E6" t="n">
-        <v>23.22324091314751</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="F6" t="n">
-        <v>23.22324091314751</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="G6" t="n">
-        <v>23.22324091314751</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314751</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314751</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="J6" t="n">
-        <v>25.79522430508853</v>
+        <v>25.79522430508926</v>
       </c>
       <c r="K6" t="n">
-        <v>108.3459783063277</v>
+        <v>108.3459783063293</v>
       </c>
       <c r="L6" t="n">
-        <v>265.6681956119382</v>
+        <v>265.6681956119408</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6126709702492</v>
+        <v>468.6126709702531</v>
       </c>
       <c r="N6" t="n">
-        <v>691.3371276269086</v>
+        <v>691.3371276269138</v>
       </c>
       <c r="O6" t="n">
-        <v>872.866697514538</v>
+        <v>978.724733927117</v>
       </c>
       <c r="P6" t="n">
-        <v>999.2271150356635</v>
+        <v>1126.612649313227</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657376</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="R6" t="n">
-        <v>1161.162045657376</v>
+        <v>1161.162045657387</v>
       </c>
       <c r="S6" t="n">
-        <v>1096.439841863647</v>
+        <v>1013.449017956133</v>
       </c>
       <c r="T6" t="n">
-        <v>1096.439841863647</v>
+        <v>816.8402904184134</v>
       </c>
       <c r="U6" t="n">
-        <v>1096.439841863647</v>
+        <v>816.8402904184134</v>
       </c>
       <c r="V6" t="n">
-        <v>861.2877336319038</v>
+        <v>581.6881821866707</v>
       </c>
       <c r="W6" t="n">
-        <v>607.0503769037023</v>
+        <v>327.4508254584691</v>
       </c>
       <c r="X6" t="n">
-        <v>399.1988766981694</v>
+        <v>119.5993252529362</v>
       </c>
       <c r="Y6" t="n">
-        <v>191.4385779332156</v>
+        <v>119.5993252529362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318.026281993451</v>
+        <v>266.8972109234036</v>
       </c>
       <c r="C7" t="n">
-        <v>318.026281993451</v>
+        <v>266.8972109234036</v>
       </c>
       <c r="D7" t="n">
-        <v>318.026281993451</v>
+        <v>116.7805715110678</v>
       </c>
       <c r="E7" t="n">
-        <v>170.1131884110579</v>
+        <v>116.7805715110678</v>
       </c>
       <c r="F7" t="n">
-        <v>23.22324091314751</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="G7" t="n">
-        <v>23.22324091314751</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="H7" t="n">
-        <v>23.22324091314751</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314751</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314751</v>
+        <v>23.22324091314773</v>
       </c>
       <c r="K7" t="n">
-        <v>133.284689427914</v>
+        <v>133.2846894279148</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993028</v>
+        <v>329.6518852993041</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276971</v>
+        <v>547.0826837276992</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730476</v>
+        <v>764.7780801730503</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967833</v>
+        <v>949.8387182967866</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195905</v>
+        <v>1084.669382195908</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.58406489986</v>
+        <v>1094.584064899864</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.58406489986</v>
+        <v>967.6652614208768</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.58406489986</v>
+        <v>967.6652614208768</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.58406489986</v>
+        <v>742.3742782728206</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.58406489986</v>
+        <v>742.3742782728206</v>
       </c>
       <c r="V7" t="n">
-        <v>1056.225582071959</v>
+        <v>487.6897900669337</v>
       </c>
       <c r="W7" t="n">
-        <v>766.8084120349985</v>
+        <v>487.6897900669337</v>
       </c>
       <c r="X7" t="n">
-        <v>538.8188611369811</v>
+        <v>487.6897900669337</v>
       </c>
       <c r="Y7" t="n">
-        <v>318.026281993451</v>
+        <v>266.8972109234036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1467.671350819693</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="C8" t="n">
-        <v>1098.708833879281</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>740.443135272531</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>354.6548826742867</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331016</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362704</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852815979</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872829</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923555</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230812</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740836</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764994</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795505</v>
+        <v>1674.463969937836</v>
       </c>
       <c r="Y8" t="n">
-        <v>1467.671350819693</v>
+        <v>1284.324637962024</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429698</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744426</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733664</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.49210333061</v>
+        <v>1852.283970943244</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506773</v>
+        <v>2184.354406119406</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2431.537139951703</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2546.853055059249</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657537</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378468</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>397.545532825511</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431179</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452076</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800311</v>
@@ -4960,52 +4960,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074502</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074502</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074502</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074502</v>
+        <v>1092.823040066908</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074502</v>
+        <v>838.1385518610207</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037541</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139524</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959934</v>
+        <v>548.7213818240601</v>
       </c>
     </row>
     <row r="11">
@@ -5024,28 +5024,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,13 +5054,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,7 +5075,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5258,40 +5258,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5516,25 +5516,25 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6069,16 +6069,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6312,19 +6312,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121634</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6546,16 +6546,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6598,16 +6598,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6695,28 +6695,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6731,7 +6731,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,19 +7017,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,19 +7491,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7628,31 +7628,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928398</v>
+        <v>73.01783107116346</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>66.78462588923514</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>101.9822523045382</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>74.51411407702575</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506852</v>
+        <v>54.74236624506793</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>106.9273095076491</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>21.74494733836724</v>
       </c>
       <c r="Q6" t="n">
-        <v>128.672256846013</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241487</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>36.58048154589974</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>66.3624843553866</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405072</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>35.11263957635535</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393159</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267405015</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>845124.5041666713</v>
+        <v>845124.5041666715</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>819345.4789902525</v>
+        <v>819345.4789902526</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>819345.4789902526</v>
+        <v>819345.4789902525</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982122</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982125</v>
-      </c>
-      <c r="C2" t="n">
-        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982125</v>
@@ -26323,19 +26323,19 @@
         <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.949767504</v>
       </c>
       <c r="G2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675039</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.949767504</v>
-      </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675044</v>
@@ -26347,13 +26347,13 @@
         <v>605359.9497675042</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800894</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210646</v>
+        <v>55881.32342210994</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276288</v>
+        <v>363279.8866276237</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353593</v>
+        <v>62744.31078353585</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440395</v>
+        <v>12992.59634440481</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.3399166633</v>
+        <v>88656.33991666249</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>261062.8075060263</v>
+        <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431046</v>
+        <v>246054.6603431038</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828186</v>
+        <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26433,28 +26433,28 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437331</v>
+        <v>61145.70223437329</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302682</v>
+        <v>65162.40123302704</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-358673.6268222765</v>
       </c>
       <c r="C6" t="n">
-        <v>248682.9423999744</v>
+        <v>248682.9423999718</v>
       </c>
       <c r="D6" t="n">
-        <v>15612.5743479204</v>
+        <v>15612.57434792526</v>
       </c>
       <c r="E6" t="n">
-        <v>-16244.88582777706</v>
+        <v>-16279.62375321479</v>
       </c>
       <c r="F6" t="n">
-        <v>491240.5557967665</v>
+        <v>491205.8178713308</v>
       </c>
       <c r="G6" t="n">
-        <v>491240.5557967666</v>
+        <v>491205.8178713311</v>
       </c>
       <c r="H6" t="n">
-        <v>491240.5557967665</v>
+        <v>491205.8178713314</v>
       </c>
       <c r="I6" t="n">
-        <v>491240.5557967665</v>
+        <v>491205.8178713309</v>
       </c>
       <c r="J6" t="n">
-        <v>428496.2450132309</v>
+        <v>428461.5070877953</v>
       </c>
       <c r="K6" t="n">
-        <v>478247.9594523629</v>
+        <v>478213.2215269263</v>
       </c>
       <c r="L6" t="n">
-        <v>402584.2158801034</v>
+        <v>402549.4779546685</v>
       </c>
       <c r="M6" t="n">
-        <v>358633.26206784</v>
+        <v>358598.5241424043</v>
       </c>
       <c r="N6" t="n">
-        <v>491240.5557967666</v>
+        <v>491205.8178713311</v>
       </c>
       <c r="O6" t="n">
-        <v>491240.5557967666</v>
+        <v>491205.8178713312</v>
       </c>
       <c r="P6" t="n">
-        <v>491240.5557967669</v>
+        <v>491205.8178713311</v>
       </c>
     </row>
   </sheetData>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.015790261611063e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>636.9329421575558</v>
+        <v>636.9329421575582</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143439</v>
+        <v>290.2905114143467</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-2.916333841085361e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.932124102696424e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949082</v>
+        <v>43.45684181949355</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599858</v>
+        <v>297.1319499599809</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327283892</v>
+        <v>50.48256327284204</v>
       </c>
       <c r="D4" t="n">
-        <v>350.294320685695</v>
+        <v>350.2943206856922</v>
       </c>
       <c r="E4" t="n">
         <v>532.1234559996095</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415047</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327283869</v>
+        <v>50.48256327284204</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856953</v>
+        <v>350.2943206856922</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327283892</v>
+        <v>50.48256327284204</v>
       </c>
       <c r="L4" t="n">
-        <v>350.294320685695</v>
+        <v>350.2943206856922</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996095</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>75.23293593371093</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>11.34683808079566</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>142.5072622887322</v>
+        <v>142.5072622887333</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>45.8759892774827</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>56.43040540468661</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>34.82255366408199</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.3729047207587</v>
@@ -27594,13 +27594,13 @@
         <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>34.45177380245673</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.44333024913669</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>118.6134079829409</v>
+        <v>64.39253020633629</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.2517287735719</v>
+        <v>22.96121735922515</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401379</v>
+        <v>111.7608855401375</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157315</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493788</v>
+        <v>211.8871100493787</v>
       </c>
       <c r="U5" t="n">
         <v>251.1408101525697</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>242.3545158481218</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>79.44058926412515</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>95.9474272417097</v>
+        <v>95.94742724170692</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>62.23275695901033</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.0040636833744</v>
+        <v>99.00406368337435</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370929</v>
+        <v>42.22754232370911</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790386</v>
+        <v>15.09724236790353</v>
       </c>
       <c r="S6" t="n">
-        <v>82.16091566844943</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.6426402623424</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8512500608582</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>52.79929073099034</v>
       </c>
       <c r="G7" t="n">
         <v>166.8424117578468</v>
@@ -27792,10 +27792,10 @@
         <v>152.0153623856348</v>
       </c>
       <c r="I7" t="n">
-        <v>120.9099147197633</v>
+        <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340539</v>
+        <v>12.15545075340509</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441978</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
-        <v>223.0380733165757</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>214.162745324206</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>118.0497333694447</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>170.0858648972139</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193718</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>265.0090336922102</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-8.159872777468991e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.8421709430404e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834393</v>
+        <v>2.560534440834403</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219524</v>
+        <v>26.22307334219533</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026803</v>
+        <v>98.7150040302684</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977683</v>
+        <v>217.3221599977691</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782882</v>
+        <v>325.7095828782894</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719738</v>
+        <v>404.0715387719753</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341625</v>
+        <v>449.6074431341642</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141832</v>
+        <v>456.8825616141849</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681362</v>
+        <v>431.4212472681378</v>
       </c>
       <c r="P5" t="n">
-        <v>368.208053260037</v>
+        <v>368.2080532600384</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976552</v>
+        <v>276.5089135976563</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690636</v>
+        <v>160.8431715690642</v>
       </c>
       <c r="S5" t="n">
-        <v>58.3481785705138</v>
+        <v>58.34817857051401</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475256</v>
+        <v>11.2087395147526</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667514</v>
+        <v>0.2048427552667522</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772856</v>
+        <v>1.370006705772861</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312206</v>
+        <v>13.23138055312211</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770579</v>
+        <v>47.16909052770597</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888293</v>
+        <v>129.4355896888299</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756107</v>
+        <v>221.2260389756115</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916019</v>
+        <v>297.465710391603</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758678</v>
+        <v>347.1284534758692</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264236</v>
+        <v>356.3159107264249</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511409</v>
+        <v>325.959446351142</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892044</v>
+        <v>261.6111927892054</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316369</v>
+        <v>174.8801542316375</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473927</v>
+        <v>85.0605917847396</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959667</v>
+        <v>25.44727367959677</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479184</v>
+        <v>5.522088432479205</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663529</v>
+        <v>0.09013202011663562</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611986</v>
+        <v>1.14856760061199</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180475</v>
+        <v>10.21181012180479</v>
       </c>
       <c r="I7" t="n">
-        <v>34.540560207495</v>
+        <v>34.54056020749513</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326739</v>
+        <v>81.20372936326768</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438288</v>
+        <v>133.4426721438294</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400765</v>
+        <v>170.7606776400771</v>
       </c>
       <c r="M7" t="n">
-        <v>180.0431921577497</v>
+        <v>180.0431921577504</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645597</v>
+        <v>175.7621674645604</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846833</v>
+        <v>162.3448095846839</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321986</v>
+        <v>138.9140305321992</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579091</v>
+        <v>96.17687426579128</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297164</v>
+        <v>51.64377593297183</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157433</v>
+        <v>20.0164008215744</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705756</v>
+        <v>4.907516111705775</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156292</v>
+        <v>0.06264914185156316</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,16 +32099,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319848</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,25 +32552,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,10 +32798,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,19 +33266,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33509,13 +33509,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33737,22 +33737,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,10 +33977,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,13 +34211,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705381</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292152</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012658</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605651</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130813</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>66.78462588923499</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268384</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>227.9081740394984</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528271</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.9666072747242</v>
+        <v>22.96660727472408</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493115</v>
+        <v>126.2075456122951</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>66.22227459997013</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108198</v>
+        <v>36.27625547108281</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333076</v>
+        <v>105.6197318333089</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019866</v>
+        <v>168.3051238019881</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068897</v>
+        <v>219.2612099068914</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175923</v>
+        <v>227.469498017594</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464495</v>
+        <v>201.3230358464511</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047675</v>
+        <v>136.9750575047689</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320575</v>
+        <v>54.20322372320683</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.597963022162645</v>
+        <v>2.597963022163157</v>
       </c>
       <c r="K6" t="n">
-        <v>83.3846000012517</v>
+        <v>83.38460000125252</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117277</v>
+        <v>158.9113306117288</v>
       </c>
       <c r="M6" t="n">
-        <v>204.9944195538495</v>
+        <v>204.9944195538508</v>
       </c>
       <c r="N6" t="n">
-        <v>224.9741986430903</v>
+        <v>224.9741986430916</v>
       </c>
       <c r="O6" t="n">
-        <v>183.3632019066964</v>
+        <v>290.2905114143467</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748741</v>
+        <v>149.3817327132424</v>
       </c>
       <c r="Q6" t="n">
-        <v>163.5706369916283</v>
+        <v>34.89838014561599</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.173180317946</v>
+        <v>111.1731803179465</v>
       </c>
       <c r="L7" t="n">
-        <v>198.3507029003927</v>
+        <v>198.3507029003933</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195903</v>
+        <v>219.627069119591</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437883</v>
+        <v>219.894339843789</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987229</v>
+        <v>186.9299374987235</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970921</v>
+        <v>136.1925897970927</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409653</v>
+        <v>10.0148310140969</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676343</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634704</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.64270034434984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,10 +36446,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998975</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38193,7 +38193,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
